--- a/assignments/Übung1/Parallele Systeme - Übung 1.xlsx
+++ b/assignments/Übung1/Parallele Systeme - Übung 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SkyDrive\HBS\1\Zuverlässigkeit von Systemen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITZeug\Parallele-Systeme\assignments\Übung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>original source code</t>
   </si>
@@ -40,15 +40,6 @@
     <t>O 3</t>
   </si>
   <si>
-    <t>march=?</t>
-  </si>
-  <si>
-    <t>mtune=?</t>
-  </si>
-  <si>
-    <t>strip?</t>
-  </si>
-  <si>
     <t>gcc</t>
   </si>
   <si>
@@ -83,21 +74,6 @@
   </si>
   <si>
     <t>Checksum</t>
-  </si>
-  <si>
-    <t>Advanced options</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>auto-ilp32</t>
-  </si>
-  <si>
-    <t>auto-p32</t>
-  </si>
-  <si>
-    <t>axcode?</t>
   </si>
 </sst>
 </file>
@@ -419,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,26 +407,24 @@
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -463,31 +437,22 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3">
         <v>3.1208939999999998</v>
@@ -501,28 +466,28 @@
       <c r="E3">
         <v>1.2358929999999999</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0.30531700000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.27868399999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.273646</v>
       </c>
       <c r="J3">
-        <v>0.30531700000000001</v>
-      </c>
-      <c r="K3">
-        <v>0.27868399999999999</v>
-      </c>
-      <c r="L3">
-        <v>0.273646</v>
-      </c>
-      <c r="M3">
         <v>0.28286899999999998</v>
       </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1.2809600000000001</v>
@@ -536,28 +501,28 @@
       <c r="E4">
         <v>1.266203</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0.231402</v>
+      </c>
+      <c r="H4">
+        <v>0.23461000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.28749400000000003</v>
       </c>
       <c r="J4">
-        <v>0.231402</v>
-      </c>
-      <c r="K4">
-        <v>0.23461000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.28749400000000003</v>
-      </c>
-      <c r="M4">
         <v>0.23890600000000001</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.71956</v>
@@ -571,73 +536,52 @@
       <c r="E5">
         <v>1.2244280000000001</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1.4379150000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.4349909999999999</v>
+      </c>
+      <c r="I5">
+        <v>1.238507</v>
       </c>
       <c r="J5">
-        <v>1.4379150000000001</v>
-      </c>
-      <c r="K5">
-        <v>1.4349909999999999</v>
-      </c>
-      <c r="L5">
-        <v>1.238507</v>
-      </c>
-      <c r="M5">
         <v>1.269549</v>
       </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
-        <v>15</v>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0.30254599999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.29735899999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.31552999999999998</v>
       </c>
       <c r="J6">
-        <v>0.30254599999999998</v>
-      </c>
-      <c r="K6">
-        <v>0.29735899999999998</v>
-      </c>
-      <c r="L6">
-        <v>0.31552999999999998</v>
-      </c>
-      <c r="M6">
         <v>0.29535600000000001</v>
       </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+      <c r="K6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:M69">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="A1:J69">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -656,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -670,18 +614,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>180.06341800000001</v>
@@ -695,7 +639,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>185549840</v>
